--- a/Textbooks, projects/Applied Math/labs/lab_6/var_5/lab_6_var_5.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_5/lab_6_var_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1751BC0B-EF61-428D-89B7-B66BC0552294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D36D878-853A-4810-8A05-3D299AA51FD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,6 @@
     <sheet name="Эйлер n=10" sheetId="2" r:id="rId2"/>
     <sheet name="Эйлер n=20" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -4629,1371 +4626,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4977901" cy="191078"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6200775" y="1138237"/>
-              <a:ext cx="4977901" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2,163+0,735</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>2,163−0,735</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑞</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−4,325</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑓</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6200775" y="1138237"/>
-              <a:ext cx="4977901" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖+1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> (2,163+0,735𝑝(𝑥_𝑖 ))+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖−1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (2,163−0,735𝑝(𝑥_𝑖 ))+𝑦_𝑖 (𝑞(𝑥_𝑖 )−4,325)=𝑓(𝑥_𝑖)</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2899191" cy="191078"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6162675" y="1485900"/>
-              <a:ext cx="2899191" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑞</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−1,471</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑝</m:t>
-                        </m:r>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:d>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>+1,471</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑝</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑥</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:d>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑓</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6162675" y="1485900"/>
-              <a:ext cx="2899191" cy="191078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦_0 (𝑞(𝑥_𝑖 )−1,471</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑝(𝑥_𝑖 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1,471𝑝(𝑥_𝑖 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑓(𝑥_𝑖)</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6157,492 +4789,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="мкр"/>
-      <sheetName val="Эйлер"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>y1</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>y2</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>y3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>2</v>
-          </cell>
-          <cell r="C12">
-            <v>1.2</v>
-          </cell>
-          <cell r="E12">
-            <v>1.2</v>
-          </cell>
-          <cell r="I12">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2.1</v>
-          </cell>
-          <cell r="C13">
-            <v>2.6720000000000002</v>
-          </cell>
-          <cell r="E13">
-            <v>3.7284975999999999</v>
-          </cell>
-          <cell r="I13">
-            <v>4.4316626282303693</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C14">
-            <v>6.2569952000000004</v>
-          </cell>
-          <cell r="E14">
-            <v>21.902769806519061</v>
-          </cell>
-          <cell r="I14">
-            <v>417.04871415465703</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>2.3000000000000003</v>
-          </cell>
-          <cell r="C15">
-            <v>20.346530823846912</v>
-          </cell>
-          <cell r="E15">
-            <v>4534.4556198510218</v>
-          </cell>
-          <cell r="I15">
-            <v>5.630188748293642E+29</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>2.4000000000000004</v>
-          </cell>
-          <cell r="C16">
-            <v>150.27862788305745</v>
-          </cell>
-          <cell r="E16">
-            <v>5717679975327.9443</v>
-          </cell>
-          <cell r="I16" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>2.5000000000000004</v>
-          </cell>
-          <cell r="C17">
-            <v>6962.5972980993274</v>
-          </cell>
-          <cell r="E17">
-            <v>1.4428232884285598E+49</v>
-          </cell>
-          <cell r="I17" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>2.6000000000000005</v>
-          </cell>
-          <cell r="C18">
-            <v>14552032.83727264</v>
-          </cell>
-          <cell r="E18">
-            <v>5.8504105405630345E+194</v>
-          </cell>
-          <cell r="I18" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2.7000000000000006</v>
-          </cell>
-          <cell r="C19">
-            <v>63528516244681.086</v>
-          </cell>
-          <cell r="E19" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I19" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>2.8000000000000007</v>
-          </cell>
-          <cell r="C20">
-            <v>1.2107617128752933E+27</v>
-          </cell>
-          <cell r="E20" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I20" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2.9000000000000008</v>
-          </cell>
-          <cell r="C21">
-            <v>4.3978317760941427E+53</v>
-          </cell>
-          <cell r="E21" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I21" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>3.0000000000000009</v>
-          </cell>
-          <cell r="C22">
-            <v>5.8022772992470087E+106</v>
-          </cell>
-          <cell r="E22" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I22" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>y1</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>y2</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>y3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2</v>
-          </cell>
-          <cell r="C36">
-            <v>1.2</v>
-          </cell>
-          <cell r="E36">
-            <v>1.2</v>
-          </cell>
-          <cell r="I36">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>2.0499999999999998</v>
-          </cell>
-          <cell r="C37">
-            <v>1.9359999999999999</v>
-          </cell>
-          <cell r="E37">
-            <v>2.1584522000000002</v>
-          </cell>
-          <cell r="I37">
-            <v>2.1956756004791544</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>2.0999999999999996</v>
-          </cell>
-          <cell r="C38">
-            <v>3.1169044000000001</v>
-          </cell>
-          <cell r="E38">
-            <v>4.1509126694091911</v>
-          </cell>
-          <cell r="I38">
-            <v>4.4941062923508444</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>2.1499999999999995</v>
-          </cell>
-          <cell r="C39">
-            <v>5.3424433178109041</v>
-          </cell>
-          <cell r="E39">
-            <v>10.867874765817525</v>
-          </cell>
-          <cell r="I39">
-            <v>18.103427889173116</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.1999999999999993</v>
-          </cell>
-          <cell r="C40">
-            <v>10.660261065078934</v>
-          </cell>
-          <cell r="E40">
-            <v>90.916364537945469</v>
-          </cell>
-          <cell r="I40">
-            <v>427889.96848214621</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.2499999999999991</v>
-          </cell>
-          <cell r="C41">
-            <v>29.363064678583296</v>
-          </cell>
-          <cell r="E41">
-            <v>135716.97505710614</v>
-          </cell>
-          <cell r="I41">
-            <v>2.2505340207775279E+73</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.2999999999999989</v>
-          </cell>
-          <cell r="C42">
-            <v>162.50109455272383</v>
-          </cell>
-          <cell r="E42">
-            <v>5.7256913511482214E+17</v>
-          </cell>
-          <cell r="I42" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>2.3499999999999988</v>
-          </cell>
-          <cell r="C43">
-            <v>4142.7085800512814</v>
-          </cell>
-          <cell r="E43">
-            <v>1.8136584954781242E+68</v>
-          </cell>
-          <cell r="I43" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2.3999999999999986</v>
-          </cell>
-          <cell r="C44">
-            <v>2578935.1859727828</v>
-          </cell>
-          <cell r="E44">
-            <v>1.8258531270905295E+270</v>
-          </cell>
-          <cell r="I44" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2.4499999999999984</v>
-          </cell>
-          <cell r="C45">
-            <v>997638892425.25488</v>
-          </cell>
-          <cell r="E45" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I45" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>2.4999999999999982</v>
-          </cell>
-          <cell r="C46">
-            <v>1.4929250395304326E+23</v>
-          </cell>
-          <cell r="E46" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I46" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>2.549999999999998</v>
-          </cell>
-          <cell r="C47">
-            <v>3.343237760485416E+45</v>
-          </cell>
-          <cell r="E47" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I47" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>2.5999999999999979</v>
-          </cell>
-          <cell r="C48">
-            <v>1.6765858084703311E+90</v>
-          </cell>
-          <cell r="E48" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I48" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>2.6499999999999977</v>
-          </cell>
-          <cell r="C49">
-            <v>4.2164099597461712E+179</v>
-          </cell>
-          <cell r="E49" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I49" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>2.6999999999999975</v>
-          </cell>
-          <cell r="C50" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E50" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I50" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>2.7499999999999973</v>
-          </cell>
-          <cell r="C51" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E51" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I51" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>2.7999999999999972</v>
-          </cell>
-          <cell r="C52" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E52" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I52" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>2.849999999999997</v>
-          </cell>
-          <cell r="C53" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E53" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I53" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>2.8999999999999968</v>
-          </cell>
-          <cell r="C54" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E54" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I54" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>2.9499999999999966</v>
-          </cell>
-          <cell r="C55" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E55" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I55" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>2.9999999999999964</v>
-          </cell>
-          <cell r="C56" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E56" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I56" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6969,7 +5115,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7138,7 +5284,7 @@
         <v>0.45</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E10" si="1">1.3*B6</f>
+        <f t="shared" ref="E6:E9" si="1">1.3*B6</f>
         <v>0.54599999999999993</v>
       </c>
     </row>
@@ -7902,7 +6048,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:C22" si="7">C13+$D$4*(EXP(-(2*C13^2+3))+2*B13)</f>
+        <f t="shared" ref="C14:C21" si="7">C13+$D$4*(EXP(-(2*C13^2+3))+2*B13)</f>
         <v>0.30915336594478848</v>
       </c>
       <c r="E14" s="6">
@@ -8829,7 +6975,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:C22" si="7">C13+$D$4*(EXP(-(2*C13^2+3))+2*B13)</f>
+        <f t="shared" ref="C14:C21" si="7">C13+$D$4*(EXP(-(2*C13^2+3))+2*B13)</f>
         <v>0.30332798429515589</v>
       </c>
       <c r="E14" s="6">

--- a/Textbooks, projects/Applied Math/labs/lab_6/var_5/lab_6_var_5.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_5/lab_6_var_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D36D878-853A-4810-8A05-3D299AA51FD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21846F2A-3996-4157-969D-1B0C380ACC6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5115,7 +5115,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
